--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1996.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1996.xlsx
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>383151.09000000003</t>
+          <t>383151.09</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>184.90000000000001</t>
+          <t>184.9</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>88.060000000000002</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>1311.0699999999999</t>
+          <t>1311.07</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>69765.899999999994</t>
+          <t>69765.9</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>914.54999999999995</t>
+          <t>914.55</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>3531.1700000000001</t>
+          <t>3531.17</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>9400.5799999999999</t>
+          <t>9400.58</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>306.55000000000001</t>
+          <t>306.55</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>222048.92999999999</t>
+          <t>222048.93</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>819.76999999999998</t>
+          <t>819.77</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>137463.85999999999</t>
+          <t>137463.86</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>2286.5700000000002</t>
+          <t>2286.57</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>4719.9099999999999</t>
+          <t>4719.91</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>360.36000000000001</t>
+          <t>360.36</t>
         </is>
       </c>
       <c r="E101" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>1691.4200000000001</t>
+          <t>1691.42</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>200128.89000000001</t>
+          <t>200128.89</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>594655.69999999995</t>
+          <t>594655.7</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>1819.8399999999999</t>
+          <t>1819.84</t>
         </is>
       </c>
       <c r="E117" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>141234.64000000001</t>
+          <t>141234.64</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>1257.5999999999999</t>
+          <t>1257.6</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>47004.230000000003</t>
+          <t>47004.23</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>80357.199999999997</t>
+          <t>80357.2</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>2675.6799999999998</t>
+          <t>2675.68</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>4102.8599999999997</t>
+          <t>4102.86</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>4501.0500000000002</t>
+          <t>4501.05</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>9003.4799999999996</t>
+          <t>9003.48</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>1956.0899999999999</t>
+          <t>1956.09</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>191.09999999999999</t>
+          <t>191.1</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>27.199999999999999</t>
+          <t>27.2</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>2387.9200000000001</t>
+          <t>2387.92</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>6712.6599999999999</t>
+          <t>6712.66</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="D205" s="0" t="inlineStr">
         <is>
-          <t>22.219999999999999</t>
+          <t>22.22</t>
         </is>
       </c>
       <c r="E205" s="0" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="D207" s="0" t="inlineStr">
         <is>
-          <t>410.33999999999997</t>
+          <t>410.34</t>
         </is>
       </c>
       <c r="E207" s="0" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D210" s="0" t="inlineStr">
         <is>
-          <t>1315.3099999999999</t>
+          <t>1315.31</t>
         </is>
       </c>
       <c r="E210" s="0" t="inlineStr">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="D211" s="0" t="inlineStr">
         <is>
-          <t>1052.1500000000001</t>
+          <t>1052.15</t>
         </is>
       </c>
       <c r="E211" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="D221" s="0" t="inlineStr">
         <is>
-          <t>727644.33999999997</t>
+          <t>727644.34</t>
         </is>
       </c>
       <c r="E221" s="0" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="D224" s="0" t="inlineStr">
         <is>
-          <t>50072.519999999997</t>
+          <t>50072.52</t>
         </is>
       </c>
       <c r="E224" s="0" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="D234" s="0" t="inlineStr">
         <is>
-          <t>31699.650000000001</t>
+          <t>31699.65</t>
         </is>
       </c>
       <c r="E234" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>18270.290000000001</t>
+          <t>18270.29</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>537.19000000000005</t>
+          <t>537.19</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>1720.3299999999999</t>
+          <t>1720.33</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D250" s="0" t="inlineStr">
         <is>
-          <t>223.05000000000001</t>
+          <t>223.05</t>
         </is>
       </c>
       <c r="E250" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>447.93000000000001</t>
+          <t>447.93</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D284" s="0" t="inlineStr">
         <is>
-          <t>60489.769999999997</t>
+          <t>60489.77</t>
         </is>
       </c>
       <c r="E284" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>201883.10000000001</t>
+          <t>201883.1</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>997114.95999999996</t>
+          <t>997114.96</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>21714.389999999999</t>
+          <t>21714.39</t>
         </is>
       </c>
       <c r="E363" s="0" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>7784.9099999999999</t>
+          <t>7784.91</t>
         </is>
       </c>
       <c r="E367" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>75093.539999999994</t>
+          <t>75093.54</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="D507" s="0" t="inlineStr">
         <is>
-          <t>28592.240000000002</t>
+          <t>28592.24</t>
         </is>
       </c>
       <c r="E507" s="0" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="D540" s="0" t="inlineStr">
         <is>
-          <t>3125.8099999999999</t>
+          <t>3125.81</t>
         </is>
       </c>
       <c r="E540" s="0" t="inlineStr">
